--- a/placement/Bom.xlsx
+++ b/placement/Bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westlybouchard/Documents/Projects/Rival/EncoderBoard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westlybouchard/Documents/Projects/Rival/EncoderBoard/placement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FEC2A7-FE36-CD4F-BCED-AA06BC07445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD011E-C04E-D94F-A5ED-ED69AF4F57EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="1060" windowWidth="21360" windowHeight="15100" xr2:uid="{4EAFC32C-7C60-5841-91AC-EB1380972D0F}"/>
+    <workbookView xWindow="9680" yWindow="3700" windowWidth="21360" windowHeight="15100" xr2:uid="{4EAFC32C-7C60-5841-91AC-EB1380972D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Comment</t>
   </si>
@@ -56,9 +56,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>C_0603_1608Metric</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -111,6 +108,27 @@
   </si>
   <si>
     <t>C962063</t>
+  </si>
+  <si>
+    <t>10kOhm</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>R1,R2,R3</t>
+  </si>
+  <si>
+    <t>C25744</t>
+  </si>
+  <si>
+    <t>C1525</t>
+  </si>
+  <si>
+    <t>C52923</t>
   </si>
 </sst>
 </file>
@@ -496,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D01074A-3BE0-1047-B71E-AB5FBFFFFFF7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,74 +549,94 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
